--- a/Materiallar/O'quv reja(python, django, telegram bot).xlsx
+++ b/Materiallar/O'quv reja(python, django, telegram bot).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>T/r</t>
   </si>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>OOP/ Class lar bilan ishlash</t>
-  </si>
-  <si>
-    <t>Modullar/ Faylar bilan ishlash</t>
-  </si>
-  <si>
-    <t>try-exept</t>
   </si>
   <si>
     <t>Vorislik/Poliformizm</t>
@@ -268,13 +262,28 @@
     <t>GitHub/Git bilan ishlash</t>
   </si>
   <si>
-    <t>Funksions(Funksiyalar)</t>
-  </si>
-  <si>
     <t>SPC G1</t>
   </si>
   <si>
     <t>UITC G1</t>
+  </si>
+  <si>
+    <t>1-imtihon</t>
+  </si>
+  <si>
+    <t>Funksions(Funksiyalar) / Kirish</t>
+  </si>
+  <si>
+    <t>Funksions(Funksiyalar) / Funksiyadan Qiymat qaytarish</t>
+  </si>
+  <si>
+    <t>Funksion(Funksiyalar) / *args, **kwargs, Modullar, Lambda</t>
+  </si>
+  <si>
+    <t>Faylar bilan ishlash</t>
+  </si>
+  <si>
+    <t>Try-except</t>
   </si>
 </sst>
 </file>
@@ -701,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -788,6 +797,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -834,9 +849,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1142,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1156,11 +1168,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="A1" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1172,11 +1184,11 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>81</v>
+      <c r="D2" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1184,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -1195,7 +1207,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -1217,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -1228,13 +1240,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1242,7 +1251,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -1264,32 +1273,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -1297,10 +1299,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -1308,138 +1310,158 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>11</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>13</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C24" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>14</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>15</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>16</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>17</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>18</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="7">
+      <c r="C30" s="7">
         <v>25</v>
       </c>
     </row>
@@ -1468,21 +1490,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="A1" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1490,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="14">
         <v>1</v>
@@ -1501,7 +1523,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="15">
         <v>1</v>
@@ -1512,7 +1534,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="17">
         <v>1</v>
@@ -1523,7 +1545,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="14">
         <v>1</v>
@@ -1534,7 +1556,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="15">
         <v>1</v>
@@ -1545,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="17">
         <v>1</v>
@@ -1556,7 +1578,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -1567,7 +1589,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="15">
         <v>1</v>
@@ -1578,7 +1600,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="17">
         <v>1</v>
@@ -1589,7 +1611,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="14">
         <v>1</v>
@@ -1600,7 +1622,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="15">
         <v>1</v>
@@ -1611,7 +1633,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="17">
         <v>1</v>
@@ -1622,7 +1644,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="14">
         <v>1</v>
@@ -1633,7 +1655,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="15">
         <v>1</v>
@@ -1644,7 +1666,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="17">
         <v>1</v>
@@ -1655,7 +1677,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="14">
         <v>1</v>
@@ -1666,7 +1688,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="15">
         <v>1</v>
@@ -1677,7 +1699,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="17">
         <v>1</v>
@@ -1688,7 +1710,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="14">
         <v>1</v>
@@ -1699,7 +1721,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="15">
         <v>1</v>
@@ -1710,7 +1732,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C23" s="17">
         <v>1</v>
@@ -1721,7 +1743,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" s="14">
         <v>1</v>
@@ -1732,7 +1754,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="15">
         <v>1</v>
@@ -1743,7 +1765,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C26" s="17">
         <v>1</v>
@@ -1754,7 +1776,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" s="14">
         <v>1</v>
@@ -1765,7 +1787,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" s="17">
         <v>1</v>
@@ -1776,7 +1798,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C29" s="15">
         <v>1</v>
@@ -1787,7 +1809,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C30" s="17">
         <v>1</v>
@@ -1798,7 +1820,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C31" s="14">
         <v>1</v>
@@ -1809,7 +1831,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C32" s="15">
         <v>1</v>
@@ -1820,7 +1842,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C33" s="17">
         <v>1</v>
@@ -1831,33 +1853,33 @@
         <v>32</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C34" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
+      <c r="A35" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1884,11 +1906,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
+      <c r="A1" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -1898,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1906,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="28">
         <v>1</v>
@@ -1917,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="28">
         <v>2</v>
@@ -1928,7 +1950,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="28">
         <v>1</v>
@@ -1939,7 +1961,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="28">
         <v>1</v>
@@ -1950,7 +1972,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="28">
         <v>3</v>
@@ -1961,7 +1983,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="28">
         <v>1</v>
@@ -1972,7 +1994,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="28">
         <v>2</v>
@@ -1983,7 +2005,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="28">
         <v>3</v>
@@ -1994,7 +2016,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="28">
         <v>1</v>
@@ -2005,7 +2027,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="28">
         <v>1</v>
@@ -2016,7 +2038,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" s="28">
         <v>1</v>
@@ -2027,7 +2049,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="28">
         <v>1</v>
@@ -2038,7 +2060,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" s="28">
         <v>1</v>
@@ -2049,7 +2071,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" s="28">
         <v>5</v>
@@ -2063,7 +2085,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C18" s="31">
         <v>24</v>
@@ -2075,26 +2097,26 @@
       <c r="C19" s="33"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
+      <c r="A20" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
     </row>
     <row r="23" spans="1:3" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="48"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Materiallar/O'quv reja(python, django, telegram bot).xlsx
+++ b/Materiallar/O'quv reja(python, django, telegram bot).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
   <si>
     <t>T/r</t>
   </si>
@@ -262,12 +262,6 @@
     <t>GitHub/Git bilan ishlash</t>
   </si>
   <si>
-    <t>SPC G1</t>
-  </si>
-  <si>
-    <t>UITC G1</t>
-  </si>
-  <si>
     <t>1-imtihon</t>
   </si>
   <si>
@@ -284,13 +278,16 @@
   </si>
   <si>
     <t>Try-except</t>
+  </si>
+  <si>
+    <t>2-imtihon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +351,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -797,9 +800,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -849,6 +849,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1154,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1168,11 +1171,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1184,12 +1187,8 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>78</v>
-      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -1281,8 +1280,8 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="35" t="s">
-        <v>79</v>
+      <c r="B11" s="34" t="s">
+        <v>77</v>
       </c>
       <c r="C11" s="4"/>
     </row>
@@ -1324,7 +1323,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
@@ -1335,7 +1334,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -1346,7 +1345,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -1357,7 +1356,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -1382,86 +1381,111 @@
     </row>
     <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
+      <c r="B20" s="34" t="s">
+        <v>83</v>
+      </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2">
+        <v>17</v>
+      </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2">
+        <v>18</v>
+      </c>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="A23" s="2">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3"/>
       <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="4">
-        <v>2</v>
-      </c>
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
+      <c r="B26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3" t="s">
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6" t="s">
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C33" s="7">
         <v>25</v>
       </c>
     </row>
@@ -1490,11 +1514,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
     </row>
     <row r="2" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
@@ -1860,26 +1884,26 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1906,11 +1930,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -2097,26 +2121,26 @@
       <c r="C19" s="33"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
     </row>
     <row r="23" spans="1:3" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="52"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Materiallar/O'quv reja(python, django, telegram bot).xlsx
+++ b/Materiallar/O'quv reja(python, django, telegram bot).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
   <si>
     <t>T/r</t>
   </si>
@@ -33,22 +33,7 @@
     <t xml:space="preserve">if-else-elif operatori </t>
   </si>
   <si>
-    <t>OOP/ Class lar bilan ishlash</t>
-  </si>
-  <si>
-    <t>Vorislik/Poliformizm</t>
-  </si>
-  <si>
-    <t>Inkamsulyatsia/ xususiat va metodlar/ dunder metodlar</t>
-  </si>
-  <si>
     <t>Jsonlar bilan ishlash</t>
-  </si>
-  <si>
-    <t>Tashqi kutubxonalr/ Math/ Pip…</t>
-  </si>
-  <si>
-    <t>RegEx</t>
   </si>
   <si>
     <t>Vaqt : 3 oy</t>
@@ -281,6 +266,30 @@
   </si>
   <si>
     <t>2-imtihon</t>
+  </si>
+  <si>
+    <t>Pythonda OOP va Class lar</t>
+  </si>
+  <si>
+    <t>Classlarga argument sifatida turli ma'lumot turlarini uzatish</t>
+  </si>
+  <si>
+    <t>Obyektlar o'rtasidagi munosabat</t>
+  </si>
+  <si>
+    <t>Super Class va Polimiformizim</t>
+  </si>
+  <si>
+    <t>Inkabsulyatsiya, klasslarning hususiyat va metodlari</t>
+  </si>
+  <si>
+    <t>Dunder metodlar</t>
+  </si>
+  <si>
+    <t>Kutubhonalar - math, Dates, RegEx, Pip bilan ishlash</t>
+  </si>
+  <si>
+    <t>3-imtihon</t>
   </si>
 </sst>
 </file>
@@ -803,6 +812,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -849,9 +861,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1157,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,11 +1180,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="A1" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1187,15 +1196,15 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -1206,7 +1215,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -1228,7 +1237,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -1239,7 +1248,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -1250,7 +1259,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -1272,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -1281,7 +1290,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="34" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C11" s="4"/>
     </row>
@@ -1290,7 +1299,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -1301,7 +1310,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -1312,7 +1321,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -1323,7 +1332,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
@@ -1334,158 +1343,179 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="34" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>18</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>19</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
+      <c r="B24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>22</v>
+      </c>
       <c r="B26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>23</v>
+      </c>
       <c r="B27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>24</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>25</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="7">
+      <c r="C34" s="7">
         <v>25</v>
       </c>
     </row>
@@ -1514,21 +1544,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
+      <c r="A1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1536,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3" s="14">
         <v>1</v>
@@ -1547,7 +1577,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4" s="15">
         <v>1</v>
@@ -1558,7 +1588,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" s="17">
         <v>1</v>
@@ -1569,7 +1599,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6" s="14">
         <v>1</v>
@@ -1580,7 +1610,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="15">
         <v>1</v>
@@ -1591,7 +1621,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8" s="17">
         <v>1</v>
@@ -1602,7 +1632,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -1613,7 +1643,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15">
         <v>1</v>
@@ -1624,7 +1654,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C11" s="17">
         <v>1</v>
@@ -1635,7 +1665,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C12" s="14">
         <v>1</v>
@@ -1646,7 +1676,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13" s="15">
         <v>1</v>
@@ -1657,7 +1687,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C14" s="17">
         <v>1</v>
@@ -1668,7 +1698,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C15" s="14">
         <v>1</v>
@@ -1679,7 +1709,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" s="15">
         <v>1</v>
@@ -1690,7 +1720,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17" s="17">
         <v>1</v>
@@ -1701,7 +1731,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C18" s="14">
         <v>1</v>
@@ -1712,7 +1742,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C19" s="15">
         <v>1</v>
@@ -1723,7 +1753,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C20" s="17">
         <v>1</v>
@@ -1734,7 +1764,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C21" s="14">
         <v>1</v>
@@ -1745,7 +1775,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C22" s="15">
         <v>1</v>
@@ -1756,7 +1786,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C23" s="17">
         <v>1</v>
@@ -1767,7 +1797,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C24" s="14">
         <v>1</v>
@@ -1778,7 +1808,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C25" s="15">
         <v>1</v>
@@ -1789,7 +1819,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C26" s="17">
         <v>1</v>
@@ -1800,7 +1830,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C27" s="14">
         <v>1</v>
@@ -1811,7 +1841,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C28" s="17">
         <v>1</v>
@@ -1822,7 +1852,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C29" s="15">
         <v>1</v>
@@ -1833,7 +1863,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C30" s="17">
         <v>1</v>
@@ -1844,7 +1874,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C31" s="14">
         <v>1</v>
@@ -1855,7 +1885,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C32" s="15">
         <v>1</v>
@@ -1866,7 +1896,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C33" s="17">
         <v>1</v>
@@ -1877,33 +1907,33 @@
         <v>32</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C34" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
+      <c r="A35" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1930,11 +1960,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
+      <c r="A1" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -1944,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1952,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C3" s="28">
         <v>1</v>
@@ -1963,7 +1993,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C4" s="28">
         <v>2</v>
@@ -1974,7 +2004,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C5" s="28">
         <v>1</v>
@@ -1985,7 +2015,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C6" s="28">
         <v>1</v>
@@ -1996,7 +2026,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C7" s="28">
         <v>3</v>
@@ -2007,7 +2037,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C8" s="28">
         <v>1</v>
@@ -2018,7 +2048,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C9" s="28">
         <v>2</v>
@@ -2029,7 +2059,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C10" s="28">
         <v>3</v>
@@ -2040,7 +2070,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C11" s="28">
         <v>1</v>
@@ -2051,7 +2081,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C12" s="28">
         <v>1</v>
@@ -2062,7 +2092,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C13" s="28">
         <v>1</v>
@@ -2073,7 +2103,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C14" s="28">
         <v>1</v>
@@ -2084,7 +2114,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C15" s="28">
         <v>1</v>
@@ -2095,7 +2125,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C16" s="28">
         <v>5</v>
@@ -2109,7 +2139,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C18" s="31">
         <v>24</v>
@@ -2121,26 +2151,26 @@
       <c r="C19" s="33"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
+      <c r="A20" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
     </row>
     <row r="23" spans="1:3" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Materiallar/O'quv reja(python, django, telegram bot).xlsx
+++ b/Materiallar/O'quv reja(python, django, telegram bot).xlsx
@@ -1166,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1501,21 +1501,11 @@
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6" t="s">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C32" s="7">
         <v>25</v>
       </c>
     </row>
